--- a/Excel-Practice/06-Data-Management/Book1.xlsx
+++ b/Excel-Practice/06-Data-Management/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying-02\Books\24-Excel-May-02-2023\Excel-Tutorials\Excel-Practice\06-Data-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CB03D3-954C-4703-89A1-AF0FDCB8B88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F130C51-3820-48F5-B140-3D25DC5FD380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{1525D7BA-2B7F-4B99-88F1-53BE7A78E6DF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>ID No</t>
   </si>
@@ -87,6 +87,24 @@
   </si>
   <si>
     <t>Last Name</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>000929</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
   </si>
 </sst>
 </file>
@@ -95,9 +113,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -139,15 +157,21 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -165,13 +189,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -189,18 +207,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0ABE5F35-99D6-4C90-BCA9-E1A7637F9FF7}" name="Table3" displayName="Table3" ref="A1:J2" totalsRowShown="0">
-  <autoFilter ref="A1:J2" xr:uid="{0ABE5F35-99D6-4C90-BCA9-E1A7637F9FF7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0ABE5F35-99D6-4C90-BCA9-E1A7637F9FF7}" name="Employees" displayName="Employees" ref="A1:J3" totalsRowShown="0">
+  <autoFilter ref="A1:J3" xr:uid="{0ABE5F35-99D6-4C90-BCA9-E1A7637F9FF7}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{DD187E55-8D99-4940-971E-FF1C5F804C03}" name="ID No"/>
     <tableColumn id="2" xr3:uid="{8B1B3C71-8F07-4E4D-B6CF-50D66B9C420D}" name="First Name"/>
     <tableColumn id="3" xr3:uid="{C20FA0B6-5CB1-4D8C-916B-7FFAE5C542FE}" name="Last Name"/>
     <tableColumn id="4" xr3:uid="{140A4CCD-3ECE-4910-BF85-883B7F80EA1B}" name="Gender"/>
     <tableColumn id="5" xr3:uid="{EDAC9BA6-81A0-473A-85CD-B69A7702277A}" name="Dept"/>
-    <tableColumn id="6" xr3:uid="{668EE4A2-2B17-43E1-BE71-04BCEB73D0C6}" name="Salary" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{668EE4A2-2B17-43E1-BE71-04BCEB73D0C6}" name="Salary" dataDxfId="2" dataCellStyle="Currency"/>
     <tableColumn id="7" xr3:uid="{A0DE19A7-9541-4670-9008-DF867B86A6C1}" name="Location"/>
-    <tableColumn id="8" xr3:uid="{D22ADB67-ACAB-4F40-BA3A-D8BE0A9E6B72}" name="Date Hire" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{2DD2918E-AF2B-410C-ABD7-1E6A016D483E}" name="Years of Services" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{D22ADB67-ACAB-4F40-BA3A-D8BE0A9E6B72}" name="Date Hire" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{2DD2918E-AF2B-410C-ABD7-1E6A016D483E}" name="Years of Services" dataDxfId="0">
+      <calculatedColumnFormula>YEAR(TODAY())-YEAR(H2)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="10" xr3:uid="{57A0B173-FF2D-43C0-9A7B-56BB3CB686EB}" name="Profit Sharing"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -504,22 +524,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5620C0-D92D-471D-827D-F33FEF8EC243}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -580,13 +602,52 @@
         <v>35724</v>
       </c>
       <c r="I2" s="3">
-        <v>24</v>
+        <f ca="1">YEAR(TODAY())-YEAR(H2)</f>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4">
+        <v>30000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2">
+        <v>30991</v>
+      </c>
+      <c r="I3" s="3">
+        <f ca="1">YEAR(TODAY())-YEAR(H3)</f>
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{0ED7FE1B-756B-46E9-AB85-5E396D7373D1}">
+      <formula1>"M,F"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
